--- a/biology/Médecine/Saneyoshi_Yasuzumi/Saneyoshi_Yasuzumi.xlsx
+++ b/biology/Médecine/Saneyoshi_Yasuzumi/Saneyoshi_Yasuzumi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le vicomte Saneyoshi Yasuzumi (実吉 安純?) (20 mars 1848 - 1er mars 1932) est un amiral de la marine impériale japonaise qui fut pionnier de la médecine navale.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans le domaine de Satsuma (actuelle préfecture de Kagoshima) Saneyoshi intègre le corps médical du nouveau ministère de l'Armée du gouvernement de Meiji en 1871 et commence à travailler avec la marine impériale japonaise en 1872. Nommé lieutenant en 1876, il est promu capitaine de corvette en 1878. Du 19 juillet 1879 au 22 septembre 1885, il est envoyé au Royaume-Uni pour étudier les dernières techniques médicales, notamment celles concernant le domaine maritime.
 De retour au Japon, Saneyoshi est promu commandant et devient instructeur à l'académie navale de médecine. Il est promu capitaine en 1886 et est directeur de l'école navale de médecine de 1889 à 1891. En 1892, il est promu contre-amiral.
